--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -159,6 +159,45 @@
   </si>
   <si>
     <t xml:space="preserve">DUPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STACJA DOKUJĄCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poziom naładowania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kliknij, aby wymusić dokowanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baterii robota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokowanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1672,109 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="65">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t xml:space="preserve">OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napięcie akumulatora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robota</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1453,9 @@
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
         <v>9</v>
@@ -1689,7 +1703,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -1706,7 +1720,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -1740,7 +1754,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="72">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -210,6 +210,27 @@
   </si>
   <si>
     <t xml:space="preserve">robota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6 V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robota:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokowanie:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1475,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
@@ -1720,7 +1741,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1754,7 +1775,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -1771,7 +1792,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1789,6 +1810,23 @@
       </c>
       <c r="F10" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
